--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1502401.727846402</v>
+        <v>1502000.640229313</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244709.460677314</v>
+        <v>244709.4606773137</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>357.9986652561188</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -677,7 +677,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>79.69508888490975</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>80.11906275413625</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>87.41904791297746</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>149.095587023195</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.47800331083533</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.26227616397031</v>
+        <v>258.9539729544678</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>22.57305782651688</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>7.364583610170384</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.76172307834298</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>101.380150250483</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>27.6041784986467</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>146.8257876799935</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -1224,10 +1224,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>10.6484187689015</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1260,10 +1260,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>126.149689546473</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.2776687100217</v>
+        <v>177.0990279530006</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>280.1819585990571</v>
       </c>
       <c r="C11" t="n">
-        <v>268.1932755567388</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>280.9167171711723</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>300.0885332591495</v>
@@ -1385,7 +1385,7 @@
         <v>302.021801156572</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I11" t="n">
         <v>61.16788127951006</v>
@@ -1427,10 +1427,10 @@
         <v>142.415337399364</v>
       </c>
       <c r="V11" t="n">
-        <v>33.90504769992705</v>
+        <v>114.4546889757629</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X11" t="n">
         <v>268.2886935499397</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>37.91997247481436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1509,7 +1509,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>149.9377938809939</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.79866947375413</v>
+        <v>28.70860440154357</v>
       </c>
       <c r="C13" t="n">
         <v>57.99866431915461</v>
@@ -1534,7 +1534,7 @@
         <v>41.620028716733</v>
       </c>
       <c r="E13" t="n">
-        <v>40.56777857251245</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>41.03470290069876</v>
@@ -1543,10 +1543,10 @@
         <v>57.3094056220466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>47.85777324473702</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>32.83986842956637</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>101.6515194465674</v>
       </c>
       <c r="T13" t="n">
-        <v>117.9658161582755</v>
+        <v>120.9260181286961</v>
       </c>
       <c r="U13" t="n">
         <v>174.3971915920092</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.1819585990571</v>
+        <v>22.26078767970182</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.1745796012668</v>
       </c>
       <c r="E14" t="n">
-        <v>280.9167171711724</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F14" t="n">
         <v>300.0885332591495</v>
       </c>
       <c r="G14" t="n">
-        <v>302.0218011565721</v>
+        <v>302.021801156572</v>
       </c>
       <c r="H14" t="n">
-        <v>209.9044569326929</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I14" t="n">
-        <v>61.16788127951011</v>
+        <v>61.16788127951006</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.43554009216774</v>
+        <v>75.43554009216768</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>112.194211282517</v>
       </c>
       <c r="U14" t="n">
-        <v>142.4153373993641</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>223.6883358392362</v>
       </c>
       <c r="W14" t="n">
-        <v>248.9884353171931</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.2886935499397</v>
       </c>
       <c r="Y14" t="n">
         <v>279.6852913461385</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>97.83333659764521</v>
+        <v>157.0197628136491</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.79866947375419</v>
+        <v>71.79866947375413</v>
       </c>
       <c r="C16" t="n">
-        <v>57.99866431915467</v>
+        <v>57.99866431915461</v>
       </c>
       <c r="D16" t="n">
-        <v>41.62002871673306</v>
+        <v>41.620028716733</v>
       </c>
       <c r="E16" t="n">
-        <v>40.56777857251251</v>
+        <v>40.56777857251245</v>
       </c>
       <c r="F16" t="n">
-        <v>41.03470290069882</v>
+        <v>41.03470290069876</v>
       </c>
       <c r="G16" t="n">
-        <v>57.30940562204665</v>
+        <v>57.3094056220466</v>
       </c>
       <c r="H16" t="n">
-        <v>47.85777324473707</v>
+        <v>47.85777324473702</v>
       </c>
       <c r="I16" t="n">
-        <v>32.83986842956642</v>
+        <v>32.83986842956637</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.10541804798373</v>
+        <v>38.10541804798368</v>
       </c>
       <c r="S16" t="n">
-        <v>101.6515194465675</v>
+        <v>101.6515194465674</v>
       </c>
       <c r="T16" t="n">
-        <v>37.26817448397159</v>
+        <v>120.9260181286961</v>
       </c>
       <c r="U16" t="n">
-        <v>174.3971915920093</v>
+        <v>174.3971915920092</v>
       </c>
       <c r="V16" t="n">
-        <v>148.2068058733798</v>
+        <v>148.2068058733797</v>
       </c>
       <c r="W16" t="n">
         <v>173.373691943993</v>
       </c>
       <c r="X16" t="n">
-        <v>119.0187939397962</v>
+        <v>119.0187939397961</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.8936616958638</v>
+        <v>26.2358180511394</v>
       </c>
     </row>
     <row r="17">
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>38.47629877891892</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>62.30657591935771</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680739576</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2214,7 +2214,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>127.3449282796437</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>77.67202513758049</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>97.83333659764521</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C26" t="n">
-        <v>264.6842555723119</v>
+        <v>264.684255572312</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>255.66555961684</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508323</v>
+        <v>57.65886129508327</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774086</v>
+        <v>71.9265201077409</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>108.6851912980903</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>170.7755952627188</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327663</v>
+        <v>140.0787392337729</v>
       </c>
       <c r="X26" t="n">
         <v>264.7796735655129</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133612</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932735</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472783</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230622</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808567</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627198</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761981</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031023</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513958</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355689</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214063</v>
       </c>
       <c r="T28" t="n">
-        <v>117.4169981442692</v>
+        <v>117.4169981442693</v>
       </c>
       <c r="U28" t="n">
         <v>170.8881716075824</v>
@@ -2792,25 +2792,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867454</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>193.1121050731525</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>216.062896150455</v>
+        <v>212.8260210640487</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508317</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.9265201077408</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617115</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>122.8847593541866</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133612</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932725</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472773</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230612</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808557</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627188</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761971</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031013</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513948</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355679</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214053</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
       </c>
       <c r="U31" t="n">
-        <v>170.8881716075823</v>
+        <v>170.8881716075824</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6977858889528</v>
+        <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>227.3598349774637</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1019725473692</v>
+        <v>249.1019725473693</v>
       </c>
       <c r="F32" t="n">
         <v>268.2737886353464</v>
@@ -3044,10 +3044,10 @@
         <v>270.2070565327689</v>
       </c>
       <c r="H32" t="n">
-        <v>187.7571715110788</v>
+        <v>187.7571715110789</v>
       </c>
       <c r="I32" t="n">
-        <v>29.35313665570698</v>
+        <v>29.353136655707</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836461</v>
+        <v>43.62079546836463</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871397</v>
+        <v>80.37946665871399</v>
       </c>
       <c r="U32" t="n">
-        <v>110.6005927755609</v>
+        <v>110.600592775561</v>
       </c>
       <c r="V32" t="n">
         <v>191.8735912154331</v>
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>84.37298759326555</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995105</v>
+        <v>39.98392484995108</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535153</v>
+        <v>26.18391969535156</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929924</v>
+        <v>9.805284092929952</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709373</v>
+        <v>8.753033948709401</v>
       </c>
       <c r="F34" t="n">
-        <v>9.219958276895682</v>
+        <v>9.21995827689571</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824352</v>
+        <v>25.49466099824355</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093394</v>
+        <v>16.04302862093397</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763286</v>
+        <v>1.025123805763315</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180596</v>
+        <v>6.290673424180625</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276434</v>
+        <v>69.83677482276437</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489298</v>
+        <v>89.11127350489301</v>
       </c>
       <c r="U34" t="n">
-        <v>142.5824469682061</v>
+        <v>142.5824469682062</v>
       </c>
       <c r="V34" t="n">
-        <v>116.3920612495766</v>
+        <v>116.3920612495767</v>
       </c>
       <c r="W34" t="n">
         <v>141.5589473201899</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599302</v>
+        <v>87.20404931599305</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.0789170720607</v>
+        <v>78.07891707206073</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -3396,7 +3396,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3633,7 +3633,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3645,7 +3645,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554795</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3825,7 +3825,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>130.9922385581937</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3867,7 +3867,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4107,7 +4107,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4122,7 +4122,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>879.5194559919278</v>
+        <v>1684.168697789979</v>
       </c>
       <c r="C2" t="n">
-        <v>879.5194559919278</v>
+        <v>1302.234939122786</v>
       </c>
       <c r="D2" t="n">
-        <v>879.5194559919278</v>
+        <v>929.4109743500096</v>
       </c>
       <c r="E2" t="n">
-        <v>879.5194559919278</v>
+        <v>567.7961609599906</v>
       </c>
       <c r="F2" t="n">
-        <v>465.3682653020981</v>
+        <v>557.6853743105651</v>
       </c>
       <c r="G2" t="n">
-        <v>453.3046827966901</v>
+        <v>545.621791805157</v>
       </c>
       <c r="H2" t="n">
-        <v>120.4834083939994</v>
+        <v>212.8005174024663</v>
       </c>
       <c r="I2" t="n">
         <v>39.98331861126228</v>
       </c>
       <c r="J2" t="n">
-        <v>111.9818628840679</v>
+        <v>39.98331861126228</v>
       </c>
       <c r="K2" t="n">
-        <v>252.1162979219402</v>
+        <v>280.123690656045</v>
       </c>
       <c r="L2" t="n">
         <v>600.0016710068865</v>
@@ -4355,25 +4355,25 @@
         <v>1908.527644058968</v>
       </c>
       <c r="S2" t="n">
-        <v>1721.298668689321</v>
+        <v>1908.527644058968</v>
       </c>
       <c r="T2" t="n">
-        <v>1496.939722420333</v>
+        <v>1684.168697789979</v>
       </c>
       <c r="U2" t="n">
-        <v>1242.054386134327</v>
+        <v>1684.168697789979</v>
       </c>
       <c r="V2" t="n">
-        <v>1242.054386134327</v>
+        <v>1684.168697789979</v>
       </c>
       <c r="W2" t="n">
-        <v>879.5194559919278</v>
+        <v>1684.168697789979</v>
       </c>
       <c r="X2" t="n">
-        <v>879.5194559919278</v>
+        <v>1684.168697789979</v>
       </c>
       <c r="Y2" t="n">
-        <v>879.5194559919278</v>
+        <v>1684.168697789979</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>622.24743637335</v>
+        <v>690.6297216832889</v>
       </c>
       <c r="C3" t="n">
-        <v>460.5437636143047</v>
+        <v>528.9260489242437</v>
       </c>
       <c r="D3" t="n">
-        <v>321.7051266045167</v>
+        <v>390.0874119144557</v>
       </c>
       <c r="E3" t="n">
-        <v>174.6771166613879</v>
+        <v>243.0594019713269</v>
       </c>
       <c r="F3" t="n">
-        <v>39.98331861126228</v>
+        <v>108.3656039212013</v>
       </c>
       <c r="G3" t="n">
-        <v>39.98331861126228</v>
+        <v>108.3656039212013</v>
       </c>
       <c r="H3" t="n">
-        <v>39.98331861126228</v>
+        <v>108.3656039212013</v>
       </c>
       <c r="I3" t="n">
         <v>39.98331861126228</v>
       </c>
       <c r="J3" t="n">
-        <v>100.2374651443684</v>
+        <v>39.98331861126228</v>
       </c>
       <c r="K3" t="n">
-        <v>329.7280177045571</v>
+        <v>39.98331861126228</v>
       </c>
       <c r="L3" t="n">
-        <v>695.5498628746727</v>
+        <v>405.8051637813779</v>
       </c>
       <c r="M3" t="n">
-        <v>695.5498628746727</v>
+        <v>890.8385172916044</v>
       </c>
       <c r="N3" t="n">
-        <v>1190.343430689044</v>
+        <v>1385.632085105975</v>
       </c>
       <c r="O3" t="n">
-        <v>1582.543381473194</v>
+        <v>1777.832035890126</v>
       </c>
       <c r="P3" t="n">
-        <v>1841.39430077752</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="Q3" t="n">
         <v>1999.165930563114</v>
       </c>
       <c r="R3" t="n">
-        <v>1939.38166165806</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="S3" t="n">
-        <v>1939.38166165806</v>
+        <v>1846.366443575854</v>
       </c>
       <c r="T3" t="n">
-        <v>1750.696557824045</v>
+        <v>1657.68133974184</v>
       </c>
       <c r="U3" t="n">
-        <v>1532.201765422355</v>
+        <v>1439.18654734015</v>
       </c>
       <c r="V3" t="n">
-        <v>1303.806142870689</v>
+        <v>1210.790924788484</v>
       </c>
       <c r="W3" t="n">
-        <v>1062.490274103999</v>
+        <v>969.4750560217936</v>
       </c>
       <c r="X3" t="n">
-        <v>974.188205505032</v>
+        <v>771.5580678995882</v>
       </c>
       <c r="Y3" t="n">
-        <v>781.6668791546108</v>
+        <v>771.5580678995882</v>
       </c>
     </row>
     <row r="4">
@@ -4468,22 +4468,22 @@
         <v>572.0425638571948</v>
       </c>
       <c r="D4" t="n">
-        <v>418.9706706849574</v>
+        <v>421.4409608034625</v>
       </c>
       <c r="E4" t="n">
-        <v>266.9616564462763</v>
+        <v>421.4409608034625</v>
       </c>
       <c r="F4" t="n">
-        <v>266.9616564462763</v>
+        <v>268.9603058292396</v>
       </c>
       <c r="G4" t="n">
-        <v>98.04190781412626</v>
+        <v>100.0405571970896</v>
       </c>
       <c r="H4" t="n">
-        <v>98.04190781412626</v>
+        <v>100.0405571970896</v>
       </c>
       <c r="I4" t="n">
-        <v>39.98331861126228</v>
+        <v>100.0405571970896</v>
       </c>
       <c r="J4" t="n">
         <v>39.98331861126228</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1344.660529773171</v>
+        <v>1646.95797440799</v>
       </c>
       <c r="C5" t="n">
-        <v>1344.660529773171</v>
+        <v>1265.024215740797</v>
       </c>
       <c r="D5" t="n">
-        <v>971.8365650003946</v>
+        <v>1265.024215740797</v>
       </c>
       <c r="E5" t="n">
-        <v>971.8365650003946</v>
+        <v>870.238495846904</v>
       </c>
       <c r="F5" t="n">
-        <v>961.725778350969</v>
+        <v>456.0873051570743</v>
       </c>
       <c r="G5" t="n">
-        <v>545.621791805157</v>
+        <v>39.98331861126228</v>
       </c>
       <c r="H5" t="n">
-        <v>212.8005174024663</v>
+        <v>39.98331861126228</v>
       </c>
       <c r="I5" t="n">
         <v>39.98331861126228</v>
@@ -4574,7 +4574,7 @@
         <v>700.0076080137969</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.246774266885</v>
+        <v>993.2408372599743</v>
       </c>
       <c r="N5" t="n">
         <v>1371.57219594769</v>
@@ -4589,28 +4589,28 @@
         <v>1999.165930563114</v>
       </c>
       <c r="R5" t="n">
-        <v>1908.527644058967</v>
+        <v>1908.527644058968</v>
       </c>
       <c r="S5" t="n">
-        <v>1721.298668689321</v>
+        <v>1908.527644058968</v>
       </c>
       <c r="T5" t="n">
-        <v>1721.298668689321</v>
+        <v>1908.527644058968</v>
       </c>
       <c r="U5" t="n">
-        <v>1721.298668689321</v>
+        <v>1908.527644058968</v>
       </c>
       <c r="V5" t="n">
-        <v>1384.319394585262</v>
+        <v>1908.527644058968</v>
       </c>
       <c r="W5" t="n">
-        <v>1344.660529773171</v>
+        <v>1646.95797440799</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.660529773171</v>
+        <v>1646.95797440799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1344.660529773171</v>
+        <v>1646.95797440799</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>819.3582216600043</v>
+        <v>359.8330298628519</v>
       </c>
       <c r="C6" t="n">
-        <v>657.6545489009591</v>
+        <v>359.8330298628519</v>
       </c>
       <c r="D6" t="n">
-        <v>518.8159118911711</v>
+        <v>359.8330298628519</v>
       </c>
       <c r="E6" t="n">
-        <v>371.7879019480424</v>
+        <v>359.8330298628519</v>
       </c>
       <c r="F6" t="n">
-        <v>237.0941038979167</v>
+        <v>337.0319613512187</v>
       </c>
       <c r="G6" t="n">
-        <v>108.3656039212013</v>
+        <v>208.3034613745032</v>
       </c>
       <c r="H6" t="n">
         <v>108.3656039212013</v>
@@ -4647,49 +4647,49 @@
         <v>100.2374651443684</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6496150071095</v>
+        <v>329.7280177045571</v>
       </c>
       <c r="L6" t="n">
-        <v>559.4714601772251</v>
+        <v>695.5498628746727</v>
       </c>
       <c r="M6" t="n">
         <v>1044.504813687452</v>
       </c>
       <c r="N6" t="n">
-        <v>1539.298381501822</v>
+        <v>1539.298381501823</v>
       </c>
       <c r="O6" t="n">
-        <v>1539.298381501822</v>
+        <v>1539.298381501823</v>
       </c>
       <c r="P6" t="n">
-        <v>1841.394300777519</v>
+        <v>1841.39430077752</v>
       </c>
       <c r="Q6" t="n">
         <v>1999.165930563114</v>
       </c>
       <c r="R6" t="n">
-        <v>1999.165930563114</v>
+        <v>1939.38166165806</v>
       </c>
       <c r="S6" t="n">
-        <v>1846.366443575854</v>
+        <v>1786.5821746708</v>
       </c>
       <c r="T6" t="n">
-        <v>1846.366443575854</v>
+        <v>1597.897070836785</v>
       </c>
       <c r="U6" t="n">
-        <v>1838.927470232248</v>
+        <v>1379.402278435095</v>
       </c>
       <c r="V6" t="n">
-        <v>1610.531847680581</v>
+        <v>1151.006655883429</v>
       </c>
       <c r="W6" t="n">
-        <v>1369.215978913892</v>
+        <v>909.6907871167394</v>
       </c>
       <c r="X6" t="n">
-        <v>1171.298990791686</v>
+        <v>711.773798994534</v>
       </c>
       <c r="Y6" t="n">
-        <v>978.7776644412652</v>
+        <v>519.2524726441128</v>
       </c>
     </row>
     <row r="7">
@@ -4726,49 +4726,49 @@
         <v>39.98331861126228</v>
       </c>
       <c r="K7" t="n">
-        <v>73.58750635590569</v>
+        <v>73.5875063559057</v>
       </c>
       <c r="L7" t="n">
         <v>174.1945857561652</v>
       </c>
       <c r="M7" t="n">
-        <v>292.1880918837669</v>
+        <v>292.188091883767</v>
       </c>
       <c r="N7" t="n">
         <v>410.6104336333673</v>
       </c>
       <c r="O7" t="n">
-        <v>509.0740801290569</v>
+        <v>509.074080129057</v>
       </c>
       <c r="P7" t="n">
         <v>572.0425638571948</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.0425638571948</v>
+        <v>541.980217313414</v>
       </c>
       <c r="R7" t="n">
-        <v>572.0425638571948</v>
+        <v>392.4584359277922</v>
       </c>
       <c r="S7" t="n">
-        <v>572.0425638571948</v>
+        <v>392.4584359277922</v>
       </c>
       <c r="T7" t="n">
-        <v>572.0425638571948</v>
+        <v>392.4584359277922</v>
       </c>
       <c r="U7" t="n">
-        <v>469.6383716849897</v>
+        <v>392.4584359277922</v>
       </c>
       <c r="V7" t="n">
-        <v>208.9030672434123</v>
+        <v>392.4584359277922</v>
       </c>
       <c r="W7" t="n">
-        <v>208.9030672434123</v>
+        <v>392.4584359277922</v>
       </c>
       <c r="X7" t="n">
-        <v>208.9030672434123</v>
+        <v>392.4584359277922</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.9030672434123</v>
+        <v>392.4584359277922</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>868.9460026537049</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>868.9460026537049</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>496.1220378809285</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>496.1220378809285</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>81.97084719109881</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>69.90726468569085</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1568.460206900163</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V8" t="n">
-        <v>1231.480932796104</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="W8" t="n">
-        <v>868.9460026537049</v>
+        <v>1607.380305825371</v>
       </c>
       <c r="X8" t="n">
-        <v>868.9460026537049</v>
+        <v>1225.350165346864</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9460026537049</v>
+        <v>831.8083099227024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>682.5605221401534</v>
+        <v>803.3644951809738</v>
       </c>
       <c r="C9" t="n">
-        <v>520.8568493811081</v>
+        <v>641.6608224219285</v>
       </c>
       <c r="D9" t="n">
-        <v>520.8568493811081</v>
+        <v>502.8221854121406</v>
       </c>
       <c r="E9" t="n">
-        <v>373.8288394379794</v>
+        <v>355.7941754690118</v>
       </c>
       <c r="F9" t="n">
-        <v>239.1350413878537</v>
+        <v>221.1003774188862</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,25 +4881,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1761.205120332826</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U9" t="n">
-        <v>1542.710327931136</v>
+        <v>1822.933743753217</v>
       </c>
       <c r="V9" t="n">
-        <v>1314.31470537947</v>
+        <v>1594.538121201551</v>
       </c>
       <c r="W9" t="n">
-        <v>1072.99883661278</v>
+        <v>1353.222252434861</v>
       </c>
       <c r="X9" t="n">
-        <v>875.0818484905745</v>
+        <v>1155.305264312656</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.5605221401534</v>
+        <v>962.7839379622347</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.7121188117562</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C10" t="n">
-        <v>195.0961492734365</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
         <v>42.02425610119923</v>
@@ -5005,7 +5005,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>364.7121188117562</v>
+        <v>395.1955943238988</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1274.201535789038</v>
+        <v>941.3347917556756</v>
       </c>
       <c r="C11" t="n">
-        <v>1003.299237246878</v>
+        <v>941.3347917556756</v>
       </c>
       <c r="D11" t="n">
-        <v>1003.299237246878</v>
+        <v>941.3347917556756</v>
       </c>
       <c r="E11" t="n">
-        <v>719.5449774780169</v>
+        <v>941.3347917556756</v>
       </c>
       <c r="F11" t="n">
-        <v>416.4252469132194</v>
+        <v>638.2150611908781</v>
       </c>
       <c r="G11" t="n">
-        <v>111.3527204924396</v>
+        <v>333.1425347700983</v>
       </c>
       <c r="H11" t="n">
-        <v>111.3527204924396</v>
+        <v>111.3527204924401</v>
       </c>
       <c r="I11" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5655260990735</v>
+        <v>230.3874601676176</v>
       </c>
       <c r="K11" t="n">
-        <v>470.5278322124003</v>
+        <v>493.6682410693008</v>
       </c>
       <c r="L11" t="n">
-        <v>927.2351393658906</v>
+        <v>841.553614154247</v>
       </c>
       <c r="M11" t="n">
-        <v>1429.296239687523</v>
+        <v>1234.792780407335</v>
       </c>
       <c r="N11" t="n">
-        <v>1850.755356697969</v>
+        <v>1613.124139095051</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.759941170802</v>
+        <v>2026.950657636429</v>
       </c>
       <c r="P11" t="n">
-        <v>2383.916837626856</v>
+        <v>2363.929488161026</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.349091313393</v>
+        <v>2458.361741847563</v>
       </c>
       <c r="R11" t="n">
         <v>2478.349091313393</v>
@@ -5075,16 +5075,16 @@
         <v>2144.970213763849</v>
       </c>
       <c r="V11" t="n">
-        <v>2110.72269083463</v>
+        <v>2029.359416818633</v>
       </c>
       <c r="W11" t="n">
-        <v>2110.72269083463</v>
+        <v>1777.855946801267</v>
       </c>
       <c r="X11" t="n">
-        <v>1839.724010481155</v>
+        <v>1506.857266447792</v>
       </c>
       <c r="Y11" t="n">
-        <v>1557.213615182025</v>
+        <v>1224.346871148663</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.8797423283119</v>
+        <v>898.8004595181853</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1760695692666</v>
+        <v>737.0967867591401</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3374325594787</v>
+        <v>598.2581497493521</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3094226163499</v>
+        <v>451.2301398062233</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6156245662243</v>
+        <v>316.5363417560977</v>
       </c>
       <c r="G12" t="n">
-        <v>217.8871245895088</v>
+        <v>187.8078417793823</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9492671362069</v>
+        <v>87.86998432608034</v>
       </c>
       <c r="I12" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J12" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K12" t="n">
-        <v>339.3116809195627</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L12" t="n">
-        <v>705.1335260896783</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M12" t="n">
-        <v>1190.166879599905</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.432525723027</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.632476507178</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.728395782875</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q12" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2418.564822408338</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S12" t="n">
-        <v>2265.765335421079</v>
+        <v>2325.549604326133</v>
       </c>
       <c r="T12" t="n">
-        <v>2077.080231587064</v>
+        <v>2136.864500492119</v>
       </c>
       <c r="U12" t="n">
-        <v>1858.585439185374</v>
+        <v>1918.369708090429</v>
       </c>
       <c r="V12" t="n">
-        <v>1630.189816633708</v>
+        <v>1689.974085538763</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.737499582199</v>
+        <v>1448.658216772073</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.820511459994</v>
+        <v>1250.741228649867</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.299185109573</v>
+        <v>1058.219902299446</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>290.5069617567181</v>
+        <v>331.0421770110521</v>
       </c>
       <c r="C13" t="n">
-        <v>231.9224523434305</v>
+        <v>272.4576675977646</v>
       </c>
       <c r="D13" t="n">
-        <v>189.8820192962253</v>
+        <v>230.4172345505595</v>
       </c>
       <c r="E13" t="n">
-        <v>148.9044651825763</v>
+        <v>230.4172345505595</v>
       </c>
       <c r="F13" t="n">
-        <v>107.4552703333856</v>
+        <v>188.9680397013689</v>
       </c>
       <c r="G13" t="n">
-        <v>49.56698182626786</v>
+        <v>131.0797511942511</v>
       </c>
       <c r="H13" t="n">
-        <v>49.56698182626786</v>
+        <v>82.73856609855713</v>
       </c>
       <c r="I13" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>99.52681635684262</v>
+        <v>99.5268163568428</v>
       </c>
       <c r="K13" t="n">
-        <v>241.9529381700301</v>
+        <v>241.9529381700304</v>
       </c>
       <c r="L13" t="n">
-        <v>451.3819516388337</v>
+        <v>451.381951638834</v>
       </c>
       <c r="M13" t="n">
-        <v>678.1973918349795</v>
+        <v>678.1973918349797</v>
       </c>
       <c r="N13" t="n">
-        <v>905.4416676531239</v>
+        <v>905.4416676531242</v>
       </c>
       <c r="O13" t="n">
         <v>1112.727248217358</v>
@@ -5224,25 +5224,25 @@
         <v>1317.078830568475</v>
       </c>
       <c r="S13" t="n">
-        <v>1214.400528097194</v>
+        <v>1214.400528097195</v>
       </c>
       <c r="T13" t="n">
-        <v>1095.24313803833</v>
+        <v>1092.253035037906</v>
       </c>
       <c r="U13" t="n">
-        <v>919.084358652462</v>
+        <v>916.0942556520376</v>
       </c>
       <c r="V13" t="n">
-        <v>769.380514335917</v>
+        <v>766.3904113354924</v>
       </c>
       <c r="W13" t="n">
-        <v>594.2555729783484</v>
+        <v>591.2654699779238</v>
       </c>
       <c r="X13" t="n">
-        <v>474.0345689987564</v>
+        <v>471.0444659983318</v>
       </c>
       <c r="Y13" t="n">
-        <v>363.0308703160657</v>
+        <v>360.0407673156413</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1215.323941219295</v>
+        <v>1486.881556172281</v>
       </c>
       <c r="C14" t="n">
-        <v>1215.323941219295</v>
+        <v>1486.881556172281</v>
       </c>
       <c r="D14" t="n">
-        <v>1215.323941219295</v>
+        <v>1225.089051524536</v>
       </c>
       <c r="E14" t="n">
-        <v>931.5696814504342</v>
+        <v>941.3347917556755</v>
       </c>
       <c r="F14" t="n">
-        <v>628.4499508856367</v>
+        <v>638.215061190878</v>
       </c>
       <c r="G14" t="n">
-        <v>323.3774244648568</v>
+        <v>333.1425347700982</v>
       </c>
       <c r="H14" t="n">
-        <v>111.3527204924397</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="I14" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
-        <v>230.3874601676175</v>
+        <v>230.3874601676176</v>
       </c>
       <c r="K14" t="n">
-        <v>513.6555905351306</v>
+        <v>470.5278322124003</v>
       </c>
       <c r="L14" t="n">
-        <v>970.3628976886209</v>
+        <v>927.2351393658906</v>
       </c>
       <c r="M14" t="n">
-        <v>1363.602063941709</v>
+        <v>1320.474305618979</v>
       </c>
       <c r="N14" t="n">
-        <v>1850.755356697969</v>
+        <v>1807.627598375238</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.759941170802</v>
+        <v>2112.632182848072</v>
       </c>
       <c r="P14" t="n">
-        <v>2383.916837626856</v>
+        <v>2340.789079304126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.349091313393</v>
+        <v>2458.361741847563</v>
       </c>
       <c r="R14" t="n">
         <v>2478.349091313393</v>
@@ -5306,22 +5306,22 @@
         <v>2402.151576068779</v>
       </c>
       <c r="T14" t="n">
-        <v>2402.151576068779</v>
+        <v>2288.824089924822</v>
       </c>
       <c r="U14" t="n">
-        <v>2258.297699907806</v>
+        <v>2288.824089924822</v>
       </c>
       <c r="V14" t="n">
-        <v>2032.349885928779</v>
+        <v>2062.876275945796</v>
       </c>
       <c r="W14" t="n">
-        <v>1780.846415911412</v>
+        <v>2062.876275945796</v>
       </c>
       <c r="X14" t="n">
-        <v>1780.846415911412</v>
+        <v>1791.877595592322</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.336020612282</v>
+        <v>1509.367200293192</v>
       </c>
     </row>
     <row r="15">
@@ -5355,34 +5355,34 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J15" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K15" t="n">
-        <v>264.1607466644866</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9825918346022</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M15" t="n">
-        <v>1115.015945344829</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N15" t="n">
-        <v>1626.281591467951</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.481542252101</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P15" t="n">
-        <v>2320.577461527799</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q15" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.564822408338</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S15" t="n">
-        <v>2265.765335421079</v>
+        <v>2325.549604326133</v>
       </c>
       <c r="T15" t="n">
         <v>2166.943783302245</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.0197311247015</v>
+        <v>372.0197311247011</v>
       </c>
       <c r="C16" t="n">
-        <v>313.4352217114139</v>
+        <v>313.4352217114135</v>
       </c>
       <c r="D16" t="n">
-        <v>271.3947886642088</v>
+        <v>271.3947886642085</v>
       </c>
       <c r="E16" t="n">
-        <v>230.4172345505598</v>
+        <v>230.4172345505596</v>
       </c>
       <c r="F16" t="n">
-        <v>188.968039701369</v>
+        <v>188.9680397013689</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0797511942512</v>
+        <v>131.0797511942511</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73856609855717</v>
+        <v>82.73856609855713</v>
       </c>
       <c r="I16" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>99.52681635684256</v>
+        <v>99.52681635684262</v>
       </c>
       <c r="K16" t="n">
-        <v>241.95293817003</v>
+        <v>241.9529381700301</v>
       </c>
       <c r="L16" t="n">
-        <v>451.3819516388335</v>
+        <v>451.3819516388337</v>
       </c>
       <c r="M16" t="n">
-        <v>678.1973918349793</v>
+        <v>678.1973918349795</v>
       </c>
       <c r="N16" t="n">
-        <v>905.4416676531237</v>
+        <v>905.4416676531239</v>
       </c>
       <c r="O16" t="n">
-        <v>1112.727248217357</v>
+        <v>1112.727248217358</v>
       </c>
       <c r="P16" t="n">
         <v>1284.517666014039</v>
@@ -5464,22 +5464,22 @@
         <v>1214.400528097194</v>
       </c>
       <c r="T16" t="n">
-        <v>1176.755907406314</v>
+        <v>1092.253035037905</v>
       </c>
       <c r="U16" t="n">
-        <v>1000.597128020446</v>
+        <v>916.0942556520374</v>
       </c>
       <c r="V16" t="n">
-        <v>850.893283703901</v>
+        <v>766.3904113354922</v>
       </c>
       <c r="W16" t="n">
-        <v>675.7683423463322</v>
+        <v>591.2654699779235</v>
       </c>
       <c r="X16" t="n">
-        <v>555.5473383667402</v>
+        <v>471.0444659983315</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.5436396840491</v>
+        <v>444.5436396840487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.283684051239</v>
+        <v>1325.283684051238</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936774</v>
+        <v>916.1603581936771</v>
       </c>
       <c r="E17" t="n">
         <v>694.191837090988</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923622</v>
       </c>
       <c r="G17" t="n">
-        <v>209.5710574377545</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H17" t="n">
-        <v>49.56698182626769</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I17" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
-        <v>290.9436626343325</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K17" t="n">
-        <v>531.0840346791152</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L17" t="n">
-        <v>1048.34754429932</v>
+        <v>878.9694077640615</v>
       </c>
       <c r="M17" t="n">
-        <v>1441.586710552408</v>
+        <v>1272.208574017149</v>
       </c>
       <c r="N17" t="n">
-        <v>1819.918069240124</v>
+        <v>1650.539932704865</v>
       </c>
       <c r="O17" t="n">
-        <v>2155.759941170802</v>
+        <v>1955.544517177699</v>
       </c>
       <c r="P17" t="n">
-        <v>2383.916837626856</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.349091313393</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R17" t="n">
         <v>2478.349091313393</v>
@@ -5555,7 +5555,7 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y17" t="n">
         <v>1546.510024778054</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F18" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G18" t="n">
         <v>217.8871245895088</v>
@@ -5592,25 +5592,25 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J18" t="n">
-        <v>49.56698182626786</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K18" t="n">
-        <v>279.0575343864565</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L18" t="n">
-        <v>644.8793795565721</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.912733066798</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N18" t="n">
-        <v>1641.178379189921</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.378329974071</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P18" t="n">
-        <v>2335.474249249769</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q18" t="n">
         <v>2478.349091313393</v>
@@ -5619,25 +5619,25 @@
         <v>2418.564822408338</v>
       </c>
       <c r="S18" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="19">
@@ -5668,28 +5668,28 @@
         <v>49.56698182626786</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778594</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080454</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852476</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809372</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P19" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q19" t="n">
         <v>584.843044309075</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.283684051239</v>
+        <v>1325.283684051238</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936774</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E20" t="n">
-        <v>694.191837090988</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F20" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923626</v>
       </c>
       <c r="G20" t="n">
         <v>209.5710574377545</v>
       </c>
       <c r="H20" t="n">
-        <v>49.56698182626769</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I20" t="n">
         <v>49.56698182626786</v>
@@ -5753,7 +5753,7 @@
         <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>361.7058981438563</v>
+        <v>531.0840346791153</v>
       </c>
       <c r="L20" t="n">
         <v>878.9694077640615</v>
@@ -5783,7 +5783,7 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U20" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V20" t="n">
         <v>2166.165354449509</v>
@@ -5792,10 +5792,10 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X20" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.510024778054</v>
+        <v>1546.510024778053</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C21" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G21" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H21" t="n">
         <v>117.9492671362069</v>
@@ -5832,13 +5832,13 @@
         <v>49.56698182626786</v>
       </c>
       <c r="K21" t="n">
-        <v>279.0575343864565</v>
+        <v>264.1607466644866</v>
       </c>
       <c r="L21" t="n">
-        <v>644.8793795565721</v>
+        <v>629.9825918346022</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.912733066798</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N21" t="n">
         <v>1626.281591467951</v>
@@ -5862,19 +5862,19 @@
         <v>2077.080231587064</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.283684051239</v>
+        <v>1325.28368405124</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175251</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936774</v>
+        <v>916.1603581936782</v>
       </c>
       <c r="E23" t="n">
-        <v>694.191837090988</v>
+        <v>694.1918370909891</v>
       </c>
       <c r="F23" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923634</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5710574377545</v>
+        <v>209.5710574377554</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626769</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626769</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="J23" t="n">
-        <v>241.2373981596324</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K23" t="n">
-        <v>481.3777702044151</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L23" t="n">
-        <v>998.6412798246204</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M23" t="n">
-        <v>1391.880446077708</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N23" t="n">
-        <v>1770.211804765424</v>
+        <v>1481.161796169606</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.216389238258</v>
+        <v>1786.16638064244</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.373285694311</v>
+        <v>2183.701413633752</v>
       </c>
       <c r="Q23" t="n">
-        <v>2397.805539380848</v>
+        <v>2447.511803855548</v>
       </c>
       <c r="R23" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313394</v>
       </c>
       <c r="S23" t="n">
-        <v>2463.937314734951</v>
+        <v>2463.937314734952</v>
       </c>
       <c r="T23" t="n">
-        <v>2412.395567257166</v>
+        <v>2412.395567257167</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762366</v>
       </c>
       <c r="V23" t="n">
-        <v>2166.165354449509</v>
+        <v>2166.165354449511</v>
       </c>
       <c r="W23" t="n">
-        <v>1976.447623098314</v>
+        <v>1976.447623098316</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411013</v>
       </c>
       <c r="Y23" t="n">
-        <v>1546.510024778054</v>
+        <v>1546.510024778055</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.8797423283119</v>
+        <v>839.016190613132</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540868</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442988</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011701</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510444</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895088</v>
+        <v>128.023572874329</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="I24" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="J24" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="K24" t="n">
-        <v>279.0575343864565</v>
+        <v>264.1607466644879</v>
       </c>
       <c r="L24" t="n">
-        <v>644.8793795565721</v>
+        <v>629.9825918346036</v>
       </c>
       <c r="M24" t="n">
-        <v>1129.912733066798</v>
+        <v>1115.01594534483</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.281591467951</v>
+        <v>1626.281591467952</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.481542252101</v>
+        <v>2018.481542252103</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.577461527799</v>
+        <v>2320.5774615278</v>
       </c>
       <c r="Q24" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313394</v>
       </c>
       <c r="R24" t="n">
-        <v>2418.564822408338</v>
+        <v>2418.56482240834</v>
       </c>
       <c r="S24" t="n">
-        <v>2265.765335421079</v>
+        <v>2265.76533542108</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587066</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185376</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.18981663371</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.87394786702</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744814</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.299185109573</v>
+        <v>998.435633394393</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="C25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="D25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="E25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="F25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="G25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="H25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="I25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="J25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="K25" t="n">
-        <v>83.17116957091127</v>
+        <v>83.1711695709113</v>
       </c>
       <c r="L25" t="n">
         <v>183.7782489711708</v>
@@ -6166,7 +6166,7 @@
         <v>581.6262270722004</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.6262270722004</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R25" t="n">
         <v>584.843044309075</v>
@@ -6190,7 +6190,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.30515171944369</v>
+        <v>60.30515171944372</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>638.6990230494989</v>
       </c>
       <c r="G26" t="n">
-        <v>337.1709612594533</v>
+        <v>337.1709612594532</v>
       </c>
       <c r="H26" t="n">
-        <v>118.9256116125289</v>
+        <v>118.925611612529</v>
       </c>
       <c r="I26" t="n">
         <v>60.68433757709132</v>
@@ -6227,19 +6227,19 @@
         <v>244.9787457030236</v>
       </c>
       <c r="K26" t="n">
-        <v>597.4149816009331</v>
+        <v>589.9307838442196</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.596218539006</v>
+        <v>1050.112020782292</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.13124864522</v>
+        <v>1555.647050888507</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.758471186063</v>
+        <v>2046.274273429349</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.058919512023</v>
+        <v>2463.57472175531</v>
       </c>
       <c r="P26" t="n">
         <v>2804.02748206449</v>
@@ -6251,7 +6251,7 @@
         <v>3034.216878854566</v>
       </c>
       <c r="S26" t="n">
-        <v>2961.563828240687</v>
+        <v>2961.563828240686</v>
       </c>
       <c r="T26" t="n">
         <v>2851.780806727464</v>
@@ -6260,13 +6260,13 @@
         <v>2711.471395197224</v>
       </c>
       <c r="V26" t="n">
-        <v>2538.970793921751</v>
+        <v>2711.471395197224</v>
       </c>
       <c r="W26" t="n">
-        <v>2291.011788535118</v>
+        <v>2569.977719203514</v>
       </c>
       <c r="X26" t="n">
-        <v>2023.557572812378</v>
+        <v>2302.523503480774</v>
       </c>
       <c r="Y26" t="n">
         <v>2023.557572812378</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>925.2844806190308</v>
+        <v>939.9970980791353</v>
       </c>
       <c r="C27" t="n">
-        <v>763.5808078599855</v>
+        <v>778.29342532009</v>
       </c>
       <c r="D27" t="n">
-        <v>624.7421708501976</v>
+        <v>639.4547883103021</v>
       </c>
       <c r="E27" t="n">
-        <v>477.7141609070688</v>
+        <v>492.4267783671734</v>
       </c>
       <c r="F27" t="n">
-        <v>343.0203628569432</v>
+        <v>357.7329803170477</v>
       </c>
       <c r="G27" t="n">
-        <v>214.2918628802277</v>
+        <v>229.0044803403323</v>
       </c>
       <c r="H27" t="n">
-        <v>114.3540054269258</v>
+        <v>129.0666228870303</v>
       </c>
       <c r="I27" t="n">
         <v>60.68433757709132</v>
@@ -6327,28 +6327,28 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R27" t="n">
-        <v>2504.833112414238</v>
+        <v>2519.545729874343</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.033625426979</v>
+        <v>2366.746242887083</v>
       </c>
       <c r="T27" t="n">
-        <v>2163.348521592964</v>
+        <v>2178.061139053068</v>
       </c>
       <c r="U27" t="n">
-        <v>1944.853729191274</v>
+        <v>1959.566346651379</v>
       </c>
       <c r="V27" t="n">
-        <v>1716.458106639608</v>
+        <v>1731.170724099713</v>
       </c>
       <c r="W27" t="n">
-        <v>1475.142237872918</v>
+        <v>1489.854855333023</v>
       </c>
       <c r="X27" t="n">
-        <v>1277.225249750713</v>
+        <v>1291.937867210817</v>
       </c>
       <c r="Y27" t="n">
-        <v>1084.703923400292</v>
+        <v>1099.416540860396</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.3258344603852</v>
+        <v>358.3258344603856</v>
       </c>
       <c r="C28" t="n">
-        <v>303.2857896778318</v>
+        <v>303.2857896778322</v>
       </c>
       <c r="D28" t="n">
-        <v>264.7898212613611</v>
+        <v>264.7898212613613</v>
       </c>
       <c r="E28" t="n">
-        <v>227.3567317784463</v>
+        <v>227.3567317784465</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4520015599899</v>
+        <v>189.45200155999</v>
       </c>
       <c r="G28" t="n">
-        <v>135.1081776836062</v>
+        <v>135.1081776836063</v>
       </c>
       <c r="H28" t="n">
-        <v>90.31145721864641</v>
+        <v>90.31145721864645</v>
       </c>
       <c r="I28" t="n">
         <v>60.68433757709132</v>
@@ -6385,49 +6385,49 @@
         <v>114.1181018922486</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0181534900188</v>
+        <v>260.0181534900186</v>
       </c>
       <c r="L28" t="n">
-        <v>472.9210967434049</v>
+        <v>472.9210967434046</v>
       </c>
       <c r="M28" t="n">
-        <v>703.2104667241332</v>
+        <v>703.210466724133</v>
       </c>
       <c r="N28" t="n">
-        <v>933.9286723268601</v>
+        <v>933.9286723268599</v>
       </c>
       <c r="O28" t="n">
         <v>1144.688182675676</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.952530256941</v>
+        <v>1319.952530256942</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.477945856548</v>
+        <v>1394.477945856549</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.532089226693</v>
+        <v>1359.532089226694</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.398251386147</v>
+        <v>1260.398251386148</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.795222957592</v>
+        <v>1141.795222957593</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1809082024582</v>
+        <v>969.180908202459</v>
       </c>
       <c r="V28" t="n">
-        <v>823.0215285166473</v>
+        <v>823.021528516648</v>
       </c>
       <c r="W28" t="n">
-        <v>651.4410517898129</v>
+        <v>651.4410517898135</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7645124409552</v>
+        <v>534.7645124409556</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.3052783889986</v>
+        <v>427.3052783889991</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1637.624628657203</v>
+        <v>1415.221279308911</v>
       </c>
       <c r="C29" t="n">
-        <v>1370.266794745777</v>
+        <v>1415.221279308911</v>
       </c>
       <c r="D29" t="n">
-        <v>1112.018754728767</v>
+        <v>1156.973239291901</v>
       </c>
       <c r="E29" t="n">
-        <v>831.8089595906401</v>
+        <v>876.7634441537743</v>
       </c>
       <c r="F29" t="n">
-        <v>532.2336936565769</v>
+        <v>577.1881782197111</v>
       </c>
       <c r="G29" t="n">
-        <v>337.1709612594531</v>
+        <v>275.6601164296657</v>
       </c>
       <c r="H29" t="n">
-        <v>118.9256116125289</v>
+        <v>60.68433757709132</v>
       </c>
       <c r="I29" t="n">
         <v>60.68433757709132</v>
       </c>
       <c r="J29" t="n">
-        <v>244.9787457030237</v>
+        <v>244.9787457030236</v>
       </c>
       <c r="K29" t="n">
         <v>597.4149816009331</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.596218539006</v>
+        <v>1050.112020782292</v>
       </c>
       <c r="M29" t="n">
-        <v>1563.13124864522</v>
+        <v>1555.647050888507</v>
       </c>
       <c r="N29" t="n">
         <v>2046.274273429349</v>
@@ -6497,16 +6497,16 @@
         <v>2711.471395197224</v>
       </c>
       <c r="V29" t="n">
-        <v>2711.471395197224</v>
+        <v>2489.068045848932</v>
       </c>
       <c r="W29" t="n">
-        <v>2463.512389810592</v>
+        <v>2241.109040462299</v>
       </c>
       <c r="X29" t="n">
-        <v>2196.058174087852</v>
+        <v>1973.654824739559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1917.092243419456</v>
+        <v>1694.688894071164</v>
       </c>
     </row>
     <row r="30">
@@ -6522,19 +6522,19 @@
         <v>763.5808078599855</v>
       </c>
       <c r="D30" t="n">
-        <v>639.4547883103021</v>
+        <v>624.7421708501976</v>
       </c>
       <c r="E30" t="n">
-        <v>492.4267783671734</v>
+        <v>477.7141609070688</v>
       </c>
       <c r="F30" t="n">
-        <v>357.7329803170477</v>
+        <v>343.0203628569432</v>
       </c>
       <c r="G30" t="n">
-        <v>229.0044803403323</v>
+        <v>214.2918628802277</v>
       </c>
       <c r="H30" t="n">
-        <v>129.0666228870303</v>
+        <v>114.3540054269258</v>
       </c>
       <c r="I30" t="n">
         <v>60.68433757709132</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.3258344603846</v>
+        <v>358.3258344603848</v>
       </c>
       <c r="C31" t="n">
-        <v>303.2857896778312</v>
+        <v>303.2857896778316</v>
       </c>
       <c r="D31" t="n">
-        <v>264.7898212613604</v>
+        <v>264.7898212613608</v>
       </c>
       <c r="E31" t="n">
-        <v>227.3567317784459</v>
+        <v>227.3567317784463</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4520015599896</v>
+        <v>189.4520015599899</v>
       </c>
       <c r="G31" t="n">
-        <v>135.1081776836063</v>
+        <v>135.1081776836062</v>
       </c>
       <c r="H31" t="n">
-        <v>90.31145721864635</v>
+        <v>90.31145721864641</v>
       </c>
       <c r="I31" t="n">
         <v>60.68433757709132</v>
       </c>
       <c r="J31" t="n">
-        <v>114.1181018922484</v>
+        <v>114.1181018922488</v>
       </c>
       <c r="K31" t="n">
-        <v>260.018153490018</v>
+        <v>260.0181534900188</v>
       </c>
       <c r="L31" t="n">
-        <v>472.921096743404</v>
+        <v>472.921096743405</v>
       </c>
       <c r="M31" t="n">
-        <v>703.2104667241322</v>
+        <v>703.2104667241333</v>
       </c>
       <c r="N31" t="n">
-        <v>933.928672326859</v>
+        <v>933.9286723268604</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.688182675676</v>
+        <v>1144.688182675677</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.95253025694</v>
+        <v>1319.952530256941</v>
       </c>
       <c r="Q31" t="n">
-        <v>1394.477945856547</v>
+        <v>1394.477945856548</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.532089226692</v>
+        <v>1359.532089226693</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.398251386146</v>
+        <v>1260.398251386147</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.795222957591</v>
+        <v>1141.795222957592</v>
       </c>
       <c r="U31" t="n">
-        <v>969.1809082024577</v>
+        <v>969.1809082024583</v>
       </c>
       <c r="V31" t="n">
-        <v>823.0215285166466</v>
+        <v>823.0215285166473</v>
       </c>
       <c r="W31" t="n">
-        <v>651.4410517898121</v>
+        <v>651.4410517898128</v>
       </c>
       <c r="X31" t="n">
-        <v>534.7645124409544</v>
+        <v>534.7645124409549</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.305278388998</v>
+        <v>427.3052783889984</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1541.907533211063</v>
+        <v>1541.907533211064</v>
       </c>
       <c r="C32" t="n">
         <v>1303.141340349512</v>
@@ -6683,46 +6683,46 @@
         <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>821.8667872941251</v>
+        <v>821.8667872941252</v>
       </c>
       <c r="F32" t="n">
         <v>550.8831624099369</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9467416697663</v>
+        <v>277.9467416697662</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271698</v>
+        <v>88.29303307271701</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715437</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J32" t="n">
-        <v>130.64194435996</v>
+        <v>270.9604756060691</v>
       </c>
       <c r="K32" t="n">
-        <v>511.100847650852</v>
+        <v>651.419378896961</v>
       </c>
       <c r="L32" t="n">
-        <v>999.3047519819072</v>
+        <v>1139.623283228016</v>
       </c>
       <c r="M32" t="n">
-        <v>1532.862449481104</v>
+        <v>1673.180980727213</v>
       </c>
       <c r="N32" t="n">
-        <v>2051.512339414929</v>
+        <v>2191.830870661038</v>
       </c>
       <c r="O32" t="n">
-        <v>2356.516923887763</v>
+        <v>2496.835455133872</v>
       </c>
       <c r="P32" t="n">
         <v>2724.992351589925</v>
       </c>
       <c r="Q32" t="n">
-        <v>2932.170004357718</v>
+        <v>2932.170004357719</v>
       </c>
       <c r="R32" t="n">
-        <v>2932.170004357718</v>
+        <v>2932.170004357719</v>
       </c>
       <c r="S32" t="n">
         <v>2888.108594793714</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>923.243543129094</v>
+        <v>937.9561605891985</v>
       </c>
       <c r="C33" t="n">
-        <v>761.5398703700487</v>
+        <v>776.2524878301532</v>
       </c>
       <c r="D33" t="n">
-        <v>622.7012333602607</v>
+        <v>637.4138508203653</v>
       </c>
       <c r="E33" t="n">
-        <v>475.673223417132</v>
+        <v>490.3858408772364</v>
       </c>
       <c r="F33" t="n">
-        <v>340.9794253670063</v>
+        <v>355.6920428271108</v>
       </c>
       <c r="G33" t="n">
-        <v>212.2509253902909</v>
+        <v>226.9635428503954</v>
       </c>
       <c r="H33" t="n">
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715437</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6783,7 +6783,7 @@
         <v>348.3880991804492</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2099443505648</v>
+        <v>714.2099443505649</v>
       </c>
       <c r="M33" t="n">
         <v>1199.243297860791</v>
@@ -6801,28 +6801,28 @@
         <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.792174924301</v>
+        <v>2517.504792384406</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.992687937042</v>
+        <v>2364.705305397146</v>
       </c>
       <c r="T33" t="n">
-        <v>2161.307584103027</v>
+        <v>2176.020201563132</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.812791701337</v>
+        <v>1957.525409161442</v>
       </c>
       <c r="V33" t="n">
-        <v>1714.417169149671</v>
+        <v>1729.129786609776</v>
       </c>
       <c r="W33" t="n">
-        <v>1473.101300382981</v>
+        <v>1487.813917843086</v>
       </c>
       <c r="X33" t="n">
-        <v>1275.184312260776</v>
+        <v>1289.896929720881</v>
       </c>
       <c r="Y33" t="n">
-        <v>1082.662985910355</v>
+        <v>1097.375603370459</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213233</v>
+        <v>156.1434096213235</v>
       </c>
       <c r="C34" t="n">
-        <v>129.695005888645</v>
+        <v>129.6950058886452</v>
       </c>
       <c r="D34" t="n">
-        <v>119.7906785220491</v>
+        <v>119.7906785220493</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890093</v>
+        <v>110.9492300890095</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6361409204278</v>
+        <v>101.6361409204279</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391925</v>
+        <v>75.88395809391932</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883446</v>
+        <v>59.67887867883449</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715437</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J34" t="n">
-        <v>58.64340008715437</v>
+        <v>140.0998317952942</v>
       </c>
       <c r="K34" t="n">
-        <v>92.24758783179777</v>
+        <v>314.0225507860466</v>
       </c>
       <c r="L34" t="n">
-        <v>333.1731984781664</v>
+        <v>414.6296301863061</v>
       </c>
       <c r="M34" t="n">
-        <v>451.1667046057681</v>
+        <v>532.6231363139078</v>
       </c>
       <c r="N34" t="n">
-        <v>569.5890463553685</v>
+        <v>670.9905383521948</v>
       </c>
       <c r="O34" t="n">
-        <v>731.6837365943647</v>
+        <v>769.4541848478844</v>
       </c>
       <c r="P34" t="n">
-        <v>934.9707515686116</v>
+        <v>832.4226685760223</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686116</v>
+        <v>934.9707515686119</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886312</v>
+        <v>928.6165359886315</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979602</v>
+        <v>858.0743391979605</v>
       </c>
       <c r="T34" t="n">
-        <v>768.0629518192804</v>
+        <v>768.0629518192807</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140217</v>
+        <v>624.0402781140219</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780857</v>
+        <v>506.4725394780859</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011262</v>
+        <v>363.4837038011264</v>
       </c>
       <c r="X34" t="n">
-        <v>275.3988055021433</v>
+        <v>275.3988055021435</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.5312125000618</v>
+        <v>196.531212500062</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>163.2749745479476</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>403.4153465927303</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>915.7684941687089</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1927.439983488863</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961697</v>
+        <v>2156.811378073379</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702244</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
         <v>768.7097621050845</v>
@@ -7011,7 +7011,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7044,22 +7044,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>80.5641709058049</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>79.45155878118717</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>87.71820369138582</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>567.8831210837625</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N38" t="n">
-        <v>1647.163263196456</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>1952.16784766929</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2344.792518616376</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7248,16 +7248,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,22 +7275,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
         <v>1282.354203995812</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F40" t="n">
-        <v>66.12215891288226</v>
+        <v>56.26358779153714</v>
       </c>
       <c r="G40" t="n">
-        <v>65.00954678826453</v>
+        <v>55.15097566691941</v>
       </c>
       <c r="H40" t="n">
-        <v>73.27619169846318</v>
+        <v>55.15097566691941</v>
       </c>
       <c r="I40" t="n">
         <v>78.28534634413701</v>
@@ -7363,19 +7363,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7415,16 +7415,16 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N41" t="n">
-        <v>1647.163263196456</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O41" t="n">
-        <v>1952.16784766929</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P41" t="n">
         <v>2220.500500038399</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
         <v>482.8431151521678</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7564,31 +7564,31 @@
         <v>59.36731927228439</v>
       </c>
       <c r="I43" t="n">
-        <v>59.36731927228439</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="J43" t="n">
-        <v>59.36731927228439</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K43" t="n">
-        <v>113.0021462133981</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L43" t="n">
-        <v>213.6092256136577</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M43" t="n">
-        <v>331.6027317412594</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>450.0250734908598</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
-        <v>548.4887199865494</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
         <v>629.3786802696717</v>
@@ -7628,19 +7628,19 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208573</v>
@@ -7658,16 +7658,16 @@
         <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961696</v>
+        <v>2116.635622160322</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.601464417749</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7755,19 +7755,19 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
         <v>1089.832877645391</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749095</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>56.26358779153751</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>79.39795846875508</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>79.39795846875508</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>113.0021462133985</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>213.609225613658</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>331.6027317412597</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>450.0250734908601</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>548.4887199865498</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007348</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433853</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>320.3729383557359</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>514.6692832245706</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -8055,16 +8055,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>606.5066237084868</v>
@@ -8073,10 +8073,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>370.3197810790176</v>
+        <v>332.4237966029193</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8222,10 +8222,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>483.3514955539039</v>
       </c>
       <c r="N5" t="n">
-        <v>467.5349037488006</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8295,13 +8295,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>206.3518760987284</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>467.9636508573764</v>
       </c>
       <c r="N6" t="n">
         <v>606.5066237084868</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>217.0424937332492</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.0110038467633</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.1904394555162</v>
+        <v>258.0532137313813</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>267.8947735152652</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>258.0532137313813</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>258.0532137313813</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9480,7 +9480,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>328.75754779113</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>608.0978263213974</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9717,7 +9717,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>328.7575477911314</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>608.0978263213974</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.1932755567388</v>
       </c>
       <c r="D11" t="n">
         <v>259.1745796012668</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5719161348819</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>189.7832881393091</v>
+        <v>109.2336468634733</v>
       </c>
       <c r="W11" t="n">
-        <v>248.9884353171931</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.09006507221056</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>40.56777857251245</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>47.85777324473702</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>32.83986842956637</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.960201970420542</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>257.9211709193552</v>
       </c>
       <c r="C14" t="n">
-        <v>268.1932755567389</v>
+        <v>268.1932755567388</v>
       </c>
       <c r="D14" t="n">
-        <v>259.1745796012668</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.667459202189063</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>112.1942112825171</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X14" t="n">
-        <v>268.2886935499398</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>83.65784364472452</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>83.65784364472438</v>
       </c>
     </row>
     <row r="17">
@@ -24500,16 +24500,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>49.40372059209048</v>
+        <v>220.1793158548094</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>105.4006760989934</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,13 +24692,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>105.4006760989926</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.236875086406428</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>790753.9500681558</v>
+        <v>790753.9500681559</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>790753.9500681557</v>
+        <v>790753.9500681559</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>846101.2447324793</v>
+        <v>846101.2447324796</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>479765.0378088635</v>
+      </c>
+      <c r="C2" t="n">
         <v>479765.0378088636</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>479765.0378088635</v>
       </c>
-      <c r="D2" t="n">
-        <v>479765.0378088634</v>
-      </c>
       <c r="E2" t="n">
-        <v>432863.638749358</v>
+        <v>432863.6387493581</v>
       </c>
       <c r="F2" t="n">
-        <v>432863.6387493578</v>
+        <v>432863.6387493581</v>
       </c>
       <c r="G2" t="n">
+        <v>479765.0378088636</v>
+      </c>
+      <c r="H2" t="n">
+        <v>479765.0378088636</v>
+      </c>
+      <c r="I2" t="n">
         <v>479765.0378088637</v>
       </c>
-      <c r="H2" t="n">
-        <v>479765.0378088639</v>
-      </c>
-      <c r="I2" t="n">
-        <v>479765.0378088639</v>
-      </c>
       <c r="J2" t="n">
-        <v>463567.4332091617</v>
+        <v>463567.4332091612</v>
       </c>
       <c r="K2" t="n">
         <v>463567.4332091617</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.0378088641</v>
+        <v>479765.0378088642</v>
       </c>
       <c r="M2" t="n">
-        <v>479765.0378088631</v>
+        <v>479765.037808863</v>
       </c>
       <c r="N2" t="n">
         <v>479765.0378088631</v>
       </c>
       <c r="O2" t="n">
-        <v>479765.0378088632</v>
+        <v>479765.037808863</v>
       </c>
       <c r="P2" t="n">
-        <v>479765.037808863</v>
+        <v>479765.0378088631</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7924.705156238928</v>
+        <v>7924.705156238899</v>
       </c>
       <c r="E3" t="n">
         <v>116088.0659382698</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48934.30502360809</v>
+        <v>48934.30502360805</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>208937.1379178785</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>71578.88473510908</v>
+        <v>71578.88473510904</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589758</v>
+        <v>19514.5399958976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41809.82738295893</v>
+        <v>41809.82738295889</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>203546.9821888937</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140584</v>
+        <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
         <v>146335.7066715068</v>
       </c>
       <c r="F4" t="n">
-        <v>146335.7066715067</v>
+        <v>146335.7066715068</v>
       </c>
       <c r="G4" t="n">
         <v>188927.0983995263</v>
@@ -26439,19 +26439,19 @@
         <v>188927.0983995264</v>
       </c>
       <c r="J4" t="n">
+        <v>173231.8948401658</v>
+      </c>
+      <c r="K4" t="n">
         <v>173231.8948401659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>173231.894840166</v>
       </c>
       <c r="L4" t="n">
         <v>187777.9987838758</v>
       </c>
       <c r="M4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="O4" t="n">
         <v>187302.9854962236</v>
@@ -26479,7 +26479,7 @@
         <v>46911.86697100239</v>
       </c>
       <c r="F5" t="n">
-        <v>46911.86697100238</v>
+        <v>46911.86697100239</v>
       </c>
       <c r="G5" t="n">
         <v>52054.18958228952</v>
@@ -26488,19 +26488,19 @@
         <v>52054.18958228952</v>
       </c>
       <c r="I5" t="n">
-        <v>52054.18958228952</v>
+        <v>52054.18958228955</v>
       </c>
       <c r="J5" t="n">
+        <v>55656.05714269899</v>
+      </c>
+      <c r="K5" t="n">
         <v>55656.057142699</v>
       </c>
-      <c r="K5" t="n">
-        <v>55656.05714269901</v>
-      </c>
       <c r="L5" t="n">
-        <v>56484.57861505463</v>
+        <v>56484.57861505464</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264636</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44711.51243838493</v>
+        <v>44711.51243838482</v>
       </c>
       <c r="C6" t="n">
         <v>212203.1334754105</v>
@@ -26528,37 +26528,37 @@
         <v>209294.8648016548</v>
       </c>
       <c r="E6" t="n">
-        <v>123527.999168579</v>
+        <v>123340.3935723411</v>
       </c>
       <c r="F6" t="n">
-        <v>239616.0651068488</v>
+        <v>239428.459510611</v>
       </c>
       <c r="G6" t="n">
         <v>189849.4448034398</v>
       </c>
       <c r="H6" t="n">
-        <v>238783.749827048</v>
+        <v>238783.7498270478</v>
       </c>
       <c r="I6" t="n">
-        <v>238783.749827048</v>
+        <v>238783.7498270478</v>
       </c>
       <c r="J6" t="n">
-        <v>25742.34330841825</v>
+        <v>25677.55289001911</v>
       </c>
       <c r="K6" t="n">
-        <v>234679.4812262967</v>
+        <v>234614.690807898</v>
       </c>
       <c r="L6" t="n">
-        <v>163923.5756748246</v>
+        <v>163923.5756748247</v>
       </c>
       <c r="M6" t="n">
-        <v>220144.6954240956</v>
+        <v>220144.6954240955</v>
       </c>
       <c r="N6" t="n">
         <v>239659.2354199932</v>
       </c>
       <c r="O6" t="n">
-        <v>197849.4080370343</v>
+        <v>197849.4080370342</v>
       </c>
       <c r="P6" t="n">
         <v>239659.2354199932</v>
@@ -26695,7 +26695,7 @@
         <v>109.9211455237819</v>
       </c>
       <c r="F2" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G2" t="n">
         <v>171.0890268032919</v>
@@ -26710,10 +26710,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26790,7 +26790,7 @@
         <v>499.7914826407786</v>
       </c>
       <c r="C4" t="n">
-        <v>499.7914826407784</v>
+        <v>499.7914826407786</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26808,7 +26808,7 @@
         <v>619.5872728283482</v>
       </c>
       <c r="I4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283485</v>
       </c>
       <c r="J4" t="n">
         <v>758.5542197136415</v>
@@ -26817,13 +26817,13 @@
         <v>758.5542197136415</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894296</v>
+        <v>733.0425010894297</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260718</v>
+      </c>
+      <c r="N4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.16788127951011</v>
+        <v>61.16788127951006</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.26228422869866</v>
+        <v>52.26228422869862</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>89.47360591888635</v>
+        <v>89.47360591888629</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487197</v>
+        <v>24.393174994872</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869866</v>
+        <v>52.26228422869862</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51171862421185</v>
+        <v>25.51171862421176</v>
       </c>
       <c r="E4" t="n">
         <v>94.28407156335788</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.16788127951011</v>
+        <v>61.16788127951006</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869866</v>
+        <v>52.26228422869862</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.51171862421185</v>
+        <v>25.51171862421176</v>
       </c>
       <c r="M4" t="n">
         <v>94.28407156335788</v>
@@ -27379,16 +27379,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>32.83919743883541</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>91.39393791838219</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>77.70618559931202</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>108.5187703280059</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.44558721731994</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>85.28301064251292</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,10 +27673,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>319.6473046770047</v>
+        <v>99.95560788650715</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>110.7738022431075</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>208.9452608675026</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>8.390244854504871</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27828,10 +27828,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>182.9381868653081</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.8888831600171</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>212.0837931609815</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,10 +27944,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>116.7927962080468</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>60.64856324920162</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.53713850962399</v>
+        <v>42.71577926664511</v>
       </c>
     </row>
     <row r="11">
@@ -28111,31 +28111,31 @@
         <v>109.9211455237819</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K11" t="n">
+        <v>23.37415036050552</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>109.9211455237819</v>
       </c>
-      <c r="L11" t="n">
+      <c r="P11" t="n">
         <v>109.9211455237819</v>
       </c>
-      <c r="M11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>109.9211455237819</v>
-      </c>
-      <c r="N11" t="n">
-        <v>43.56339224518194</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>109.9211455237819</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>29.77848998202525</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>88.96491619802916</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28324,43 +28324,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K14" t="n">
-        <v>43.56339224518214</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28369,31 +28369,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>23.37415036050527</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="15">
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>88.96491619802943</v>
+        <v>29.77848998202555</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="P16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.9211455237818</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="17">
@@ -28585,7 +28585,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28600,16 +28600,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>31.14877520994401</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>120.8806788490492</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="S17" t="n">
         <v>171.0890268032919</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>88.96491619802933</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>88.96491619802941</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>146.0103242936257</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>41.40127827312521</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -28825,10 +28825,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="L20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>88.96491619802936</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>88.9649161980292</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -29059,31 +29059,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>120.8806788490495</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0890268032919</v>
+        <v>120.8806788490509</v>
       </c>
       <c r="S23" t="n">
         <v>171.0890268032919</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>21.26645374118844</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>88.96491619802943</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>41.40127827312521</v>
       </c>
       <c r="R25" t="n">
-        <v>151.2758739120429</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>171.0890268032919</v>
@@ -29299,7 +29299,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943568</v>
       </c>
       <c r="L26" t="n">
         <v>113.4301655082087</v>
@@ -29314,7 +29314,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>105.8703697943566</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550349</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082099</v>
       </c>
       <c r="Q28" t="n">
         <v>113.4301655082087</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L29" t="n">
-        <v>113.4301655082088</v>
+        <v>105.8703697943566</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N29" t="n">
-        <v>105.8703697943566</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550349</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="C32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="D32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="E32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="F32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="G32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="H32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="I32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="K32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="L32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="M32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="N32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.8842414962182</v>
+        <v>113.8842414962186</v>
       </c>
       <c r="R32" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="T32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="U32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="V32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="W32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="X32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.56549128550338</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="C34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="D34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="E34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="F34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="G34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="H34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="I34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="L34" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>20.14652554412787</v>
       </c>
       <c r="O34" t="n">
-        <v>64.27378155889551</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="R34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="S34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="T34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="U34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="V34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="W34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="X34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475849</v>
       </c>
     </row>
     <row r="35">
@@ -30007,23 +30007,23 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>40.58157162934964</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
-        <v>116.9787331327007</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30147,22 +30147,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>151.3353767894448</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>40.58157162934944</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>116.9787331327003</v>
-      </c>
-      <c r="R38" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>14.5654912855039</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30390,16 +30390,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>166.1290651424569</v>
+        <v>156.1709124946336</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
+        <v>157.7789187685189</v>
+      </c>
+      <c r="I40" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="I40" t="n">
-        <v>147.8207661206956</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30487,19 +30487,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>40.58157162934918</v>
       </c>
       <c r="Q41" t="n">
         <v>166.1290651424569</v>
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30636,13 +30636,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J43" t="n">
-        <v>59.456666199969</v>
+        <v>74.42408546687525</v>
       </c>
       <c r="K43" t="n">
-        <v>20.23296888532358</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30730,19 +30730,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>116.9787331327006</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40.58157162934955</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30870,10 +30870,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>162.9939828386722</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>141.5499343816892</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>323.109071061456</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>499.7914826407786</v>
@@ -34793,10 +34793,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>261.4655750548743</v>
+        <v>223.569590578776</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>296.1951810567448</v>
       </c>
       <c r="N5" t="n">
-        <v>281.1367895765705</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35015,16 +35015,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>94.35570693206169</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>352.4797482957364</v>
       </c>
       <c r="N6" t="n">
-        <v>499.7914826407784</v>
+        <v>499.7914826407786</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>101.5585911716093</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.27581240187084</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>182.6469478195452</v>
       </c>
       <c r="K11" t="n">
-        <v>352.4871778922493</v>
+        <v>265.940182728973</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3205122762528</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>507.1324245673051</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7162798085312</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>418.0065843852303</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>340.3826570955528</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.1892418846767</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.45524801062366</v>
+        <v>144.3180222864888</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.6469478195451</v>
+        <v>182.6469478195452</v>
       </c>
       <c r="K14" t="n">
-        <v>286.1294246136496</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>461.3205122762528</v>
@@ -35665,10 +35665,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>118.7602651953911</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>20.1892418846767</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>155.8986043485986</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>144.3180222864888</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.46447932381283</v>
+        <v>50.46447932381289</v>
       </c>
       <c r="K16" t="n">
-        <v>143.8647695082701</v>
+        <v>143.8647695082702</v>
       </c>
       <c r="L16" t="n">
         <v>211.5444580492965</v>
@@ -35814,16 +35814,16 @@
         <v>229.1065052486321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.5396725435802</v>
+        <v>229.5396725435803</v>
       </c>
       <c r="O16" t="n">
         <v>209.3793743073068</v>
       </c>
       <c r="P16" t="n">
-        <v>173.5256745421028</v>
+        <v>173.5256745421029</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.76917759093398</v>
+        <v>71.76917759093404</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8148290990552</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35896,16 +35896,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>339.2342140713924</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>351.3421904208201</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>144.3180222864888</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.249310340277443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>413.6550591717594</v>
       </c>
       <c r="L20" t="n">
-        <v>522.4883935557629</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>216.7613786244633</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>501.3826852536891</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>193.6064811448128</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>522.4883935557629</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36373,13 +36373,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>401.5505383750628</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>266.4751416381778</v>
       </c>
       <c r="R23" t="n">
-        <v>81.35712316418676</v>
+        <v>31.14877520994574</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>216.7613786244647</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>501.3826852536891</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36534,10 +36534,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="R25" t="n">
-        <v>3.249310340277364</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766761</v>
+        <v>348.4364021628243</v>
       </c>
       <c r="L26" t="n">
-        <v>464.8295322606797</v>
+        <v>464.8295322606796</v>
       </c>
       <c r="M26" t="n">
         <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
-        <v>495.583053071558</v>
+        <v>495.5830530715579</v>
       </c>
       <c r="O26" t="n">
         <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
-        <v>336.3318813661275</v>
+        <v>343.8916770799796</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.8162803430946</v>
+        <v>208.8162803430945</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910349</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823967</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
       </c>
       <c r="L28" t="n">
-        <v>215.0534780337234</v>
+        <v>215.0534780337233</v>
       </c>
       <c r="M28" t="n">
         <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
-        <v>233.0486925280071</v>
+        <v>233.048692528007</v>
       </c>
       <c r="O28" t="n">
         <v>212.8883942917336</v>
       </c>
       <c r="P28" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265309</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536082</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.1559678039721</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
-        <v>464.8295322606797</v>
+        <v>457.2697365468276</v>
       </c>
       <c r="M29" t="n">
-        <v>510.641444551732</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N29" t="n">
-        <v>488.0232573577059</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910359</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823977</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L31" t="n">
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536092</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>214.4616924433482</v>
       </c>
       <c r="K32" t="n">
         <v>384.3019225160524</v>
@@ -37075,7 +37075,7 @@
         <v>493.1352569000559</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9471691911082</v>
+        <v>538.9471691911081</v>
       </c>
       <c r="N32" t="n">
         <v>523.8887777109342</v>
@@ -37084,10 +37084,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
-        <v>372.1974017193559</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.270356331104</v>
+        <v>209.2703563311045</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.27922394761595</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>175.6795141320732</v>
       </c>
       <c r="L34" t="n">
-        <v>243.3592026730996</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>139.7650525639262</v>
       </c>
       <c r="O34" t="n">
-        <v>163.7320103424204</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>205.340419165906</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.5839222147371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>113.3073739251129</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>499.1316206960499</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
@@ -37327,7 +37327,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,22 +37443,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>8.57436283609659</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37558,13 +37558,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3648479675862</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37686,16 +37686,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.17321671797629</v>
+        <v>5.21506407015293</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.059752167347304</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37792,10 +37792,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0430832011201</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
         <v>261.5151799773428</v>
@@ -37868,7 +37868,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -37932,13 +37932,13 @@
         <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.96741926690626</v>
       </c>
       <c r="K43" t="n">
-        <v>54.17659286981188</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38023,22 +38023,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>563.3403441859801</v>
+        <v>563.34034418598</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>425.064171994149</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>135.9676864642354</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.215064070153317</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910866</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38190,13 +38190,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.10250157069135</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
